--- a/PLC/S7-1x00/Core/ADT/stack/EStackStatus-v1.0.xlsx
+++ b/PLC/S7-1x00/Core/ADT/stack/EStackStatus-v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.0.2\work\PlcFramework\code\plc\s7-1x00\core\adt\stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA48AFA-F238-49DF-9AA6-54B5045F9678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F88340C-B989-449F-88CD-C3FC13327150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14820" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>16#8FFF</t>
   </si>
   <si>
-    <t>core\adt\stack\EStackMethod</t>
-  </si>
-  <si>
     <t>STACK_STATUS_0000_DONE</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>Stack: 0x8FFF - Error - Unknown method</t>
+  </si>
+  <si>
+    <t>core\adt\stack\EStackStatus</t>
   </si>
 </sst>
 </file>
@@ -498,22 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,12 +530,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -544,15 +544,15 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -561,15 +561,15 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -578,15 +578,15 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -595,15 +595,15 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -612,15 +612,15 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -629,15 +629,15 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -646,15 +646,15 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -663,15 +663,15 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -680,10 +680,9 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
